--- a/R/CH83-ClassificationTask/File5.xlsx
+++ b/R/CH83-ClassificationTask/File5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafrocBook/R/CH83-ClassificationTask/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD3F4A6-1DB8-B842-968F-686E7CE9629F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A29919B-7C21-C74A-81A7-E21234659462}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9860" yWindow="3300" windowWidth="15420" windowHeight="8040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,9 +85,6 @@
     <t>ClassTrue</t>
   </si>
   <si>
-    <t>ClassRx</t>
-  </si>
-  <si>
     <t>CL-IC</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>1, 2, 3</t>
+  </si>
+  <si>
+    <t>ClassDx</t>
   </si>
 </sst>
 </file>
@@ -1647,7 +1647,7 @@
         <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H1" s="7"/>
     </row>
@@ -1668,10 +1668,10 @@
         <v>5.2279972870768034</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="H2" s="7"/>
     </row>
@@ -1692,10 +1692,10 @@
         <v>6.1598794130543588</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="H3" s="7"/>
     </row>
@@ -1716,10 +1716,10 @@
         <v>6.6797581320788426</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -1740,10 +1740,10 @@
         <v>6.5340113375386393</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="7"/>
     </row>
@@ -1764,10 +1764,10 @@
         <v>2.3711594394401723</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" s="7"/>
     </row>
@@ -1788,10 +1788,10 @@
         <v>5.2129473407302482</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="7"/>
     </row>
@@ -1812,10 +1812,10 @@
         <v>5.0101686597145516</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="H8" s="7"/>
     </row>
@@ -1836,10 +1836,10 @@
         <v>6.4937205972344785</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="H9" s="7"/>
     </row>
@@ -1860,10 +1860,10 @@
         <v>6.6573050361002721</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10" s="7"/>
     </row>
@@ -1884,10 +1884,10 @@
         <v>6.8907489002986644</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H11" s="7"/>
     </row>
@@ -1908,10 +1908,10 @@
         <v>2.4283596479497378</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H12" s="7"/>
     </row>
@@ -1932,10 +1932,10 @@
         <v>5.691207345152451</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H13" s="7"/>
     </row>
@@ -1956,10 +1956,10 @@
         <v>5.1443026017839655</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="H14" s="7"/>
     </row>
@@ -1980,10 +1980,10 @@
         <v>6.3993217676122747</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="H15" s="7"/>
     </row>
@@ -2004,10 +2004,10 @@
         <v>7.263376017988012</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H16" s="7"/>
     </row>
@@ -2028,10 +2028,10 @@
         <v>7.3071979907381817</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H17" s="7"/>
     </row>
@@ -2052,10 +2052,10 @@
         <v>2.4243962305342741</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H18" s="7"/>
     </row>
@@ -2076,10 +2076,10 @@
         <v>5.4671164576148295</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H19" s="7"/>
     </row>
@@ -2099,7 +2099,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2130,7 +2130,7 @@
         <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2147,16 +2147,16 @@
         <v>5.9229619575028991</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2173,13 +2173,13 @@
         <v>1.5760277408055834</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2196,13 +2196,13 @@
         <v>2.7529562309810576</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2219,13 +2219,13 @@
         <v>2.2877053543574775</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2242,13 +2242,13 @@
         <v>1.683426514317937</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2265,13 +2265,13 @@
         <v>6.5769045487677937</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2288,13 +2288,13 @@
         <v>5.0989686891654289</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2311,13 +2311,13 @@
         <v>1.231166795859959</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2334,13 +2334,13 @@
         <v>2.1262976114040653</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2357,13 +2357,13 @@
         <v>1.69708780733748</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -2380,13 +2380,13 @@
         <v>0.9082595694618415</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -2403,13 +2403,13 @@
         <v>6.4926604568255968</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -2426,13 +2426,13 @@
         <v>5.7843122010915433</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -2449,13 +2449,13 @@
         <v>1.095221922657726</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -2472,13 +2472,13 @@
         <v>2.3355357892082651</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -2495,13 +2495,13 @@
         <v>2.2234895077469918</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2518,13 +2518,13 @@
         <v>1.0959283750827606</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -2541,13 +2541,13 @@
         <v>5.8135848615131991</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2596,10 +2596,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2613,16 +2613,16 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2636,16 +2636,16 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2659,14 +2659,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2680,14 +2680,14 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2701,14 +2701,14 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2722,14 +2722,14 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2743,14 +2743,14 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
